--- a/Code/Results/Cases/Case_0_215/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_215/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.005425195368223</v>
+        <v>1.035739180850205</v>
       </c>
       <c r="D2">
-        <v>1.012954788778214</v>
+        <v>1.0365018361634</v>
       </c>
       <c r="E2">
-        <v>1.019556305263669</v>
+        <v>1.04407915353227</v>
       </c>
       <c r="F2">
-        <v>1.026742294852315</v>
+        <v>1.053369209529297</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050916958852465</v>
+        <v>1.037041961587844</v>
       </c>
       <c r="J2">
-        <v>1.027444841810325</v>
+        <v>1.040851311308157</v>
       </c>
       <c r="K2">
-        <v>1.024236545567455</v>
+        <v>1.039295395551752</v>
       </c>
       <c r="L2">
-        <v>1.030749750409165</v>
+        <v>1.046851213677209</v>
       </c>
       <c r="M2">
-        <v>1.037841226654337</v>
+        <v>1.056115368416734</v>
       </c>
       <c r="N2">
-        <v>1.028903931335271</v>
+        <v>1.042329439557529</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.010043070685271</v>
+        <v>1.036705795916226</v>
       </c>
       <c r="D3">
-        <v>1.016721857927537</v>
+        <v>1.037335210576458</v>
       </c>
       <c r="E3">
-        <v>1.02344898618912</v>
+        <v>1.044945200196183</v>
       </c>
       <c r="F3">
-        <v>1.031090026868605</v>
+        <v>1.054338083335344</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052184585236003</v>
+        <v>1.037212169769669</v>
       </c>
       <c r="J3">
-        <v>1.030263645985739</v>
+        <v>1.041461513686232</v>
       </c>
       <c r="K3">
-        <v>1.027145158458014</v>
+        <v>1.039938321567864</v>
       </c>
       <c r="L3">
-        <v>1.033790372878793</v>
+        <v>1.047528282162623</v>
       </c>
       <c r="M3">
-        <v>1.04133997821295</v>
+        <v>1.056896873952488</v>
       </c>
       <c r="N3">
-        <v>1.031726738535931</v>
+        <v>1.042940508492972</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.012967306189326</v>
+        <v>1.0373313370646</v>
       </c>
       <c r="D4">
-        <v>1.019112414773835</v>
+        <v>1.037874822328026</v>
       </c>
       <c r="E4">
-        <v>1.02591966530278</v>
+        <v>1.045506022078144</v>
       </c>
       <c r="F4">
-        <v>1.033848542985785</v>
+        <v>1.054965428013442</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052971581080661</v>
+        <v>1.037320362382317</v>
       </c>
       <c r="J4">
-        <v>1.032045024465285</v>
+        <v>1.041855826037568</v>
       </c>
       <c r="K4">
-        <v>1.028985514970096</v>
+        <v>1.040354055020022</v>
       </c>
       <c r="L4">
-        <v>1.035715012292648</v>
+        <v>1.047966182353089</v>
       </c>
       <c r="M4">
-        <v>1.043554913793768</v>
+        <v>1.057402358624128</v>
       </c>
       <c r="N4">
-        <v>1.033510646777245</v>
+        <v>1.043335380813075</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.014181913960495</v>
+        <v>1.037594332136853</v>
       </c>
       <c r="D5">
-        <v>1.020106532267776</v>
+        <v>1.038101760785552</v>
       </c>
       <c r="E5">
-        <v>1.026947202221078</v>
+        <v>1.045741893795702</v>
       </c>
       <c r="F5">
-        <v>1.034995561580418</v>
+        <v>1.055229262738761</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053294639035988</v>
+        <v>1.037365380624386</v>
       </c>
       <c r="J5">
-        <v>1.032784032350307</v>
+        <v>1.042021467335427</v>
       </c>
       <c r="K5">
-        <v>1.029749525112158</v>
+        <v>1.040528760762698</v>
       </c>
       <c r="L5">
-        <v>1.036514194732773</v>
+        <v>1.048150224752925</v>
       </c>
       <c r="M5">
-        <v>1.044474714131152</v>
+        <v>1.057614815036017</v>
       </c>
       <c r="N5">
-        <v>1.034250704138229</v>
+        <v>1.043501257340576</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.014385002783953</v>
+        <v>1.037638491175217</v>
       </c>
       <c r="D6">
-        <v>1.020272821995362</v>
+        <v>1.038139869741096</v>
       </c>
       <c r="E6">
-        <v>1.027119088104156</v>
+        <v>1.045781503653808</v>
       </c>
       <c r="F6">
-        <v>1.035187421161236</v>
+        <v>1.05527356752252</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053348429363206</v>
+        <v>1.03737291204343</v>
       </c>
       <c r="J6">
-        <v>1.032907544140156</v>
+        <v>1.042049271729208</v>
       </c>
       <c r="K6">
-        <v>1.029877247101947</v>
+        <v>1.040558090575781</v>
       </c>
       <c r="L6">
-        <v>1.036647807377987</v>
+        <v>1.048181123272672</v>
       </c>
       <c r="M6">
-        <v>1.044628496988372</v>
+        <v>1.057650484477825</v>
       </c>
       <c r="N6">
-        <v>1.034374391328986</v>
+        <v>1.043529101219786</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.012983593061408</v>
+        <v>1.037334851149526</v>
       </c>
       <c r="D7">
-        <v>1.019125740456824</v>
+        <v>1.037877854355632</v>
       </c>
       <c r="E7">
-        <v>1.025933438558231</v>
+        <v>1.045509173407487</v>
       </c>
       <c r="F7">
-        <v>1.033863918679079</v>
+        <v>1.054968952998349</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052975928215776</v>
+        <v>1.037320965749909</v>
       </c>
       <c r="J7">
-        <v>1.032054937562337</v>
+        <v>1.041858039847246</v>
       </c>
       <c r="K7">
-        <v>1.028995761330767</v>
+        <v>1.040356389717435</v>
       </c>
       <c r="L7">
-        <v>1.035725729634639</v>
+        <v>1.047968641737613</v>
       </c>
       <c r="M7">
-        <v>1.04356724836566</v>
+        <v>1.057405197672338</v>
       </c>
       <c r="N7">
-        <v>1.033520573952031</v>
+        <v>1.043337597766617</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.00699938176085</v>
+        <v>1.036065836630401</v>
       </c>
       <c r="D8">
-        <v>1.014237849615931</v>
+        <v>1.036783403128507</v>
       </c>
       <c r="E8">
-        <v>1.020882064765302</v>
+        <v>1.044371747952245</v>
       </c>
       <c r="F8">
-        <v>1.02822324571777</v>
+        <v>1.053696557601435</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051352343628366</v>
+        <v>1.037099886249488</v>
       </c>
       <c r="J8">
-        <v>1.028406476926254</v>
+        <v>1.041057641146594</v>
       </c>
       <c r="K8">
-        <v>1.025228353031491</v>
+        <v>1.03951273338143</v>
       </c>
       <c r="L8">
-        <v>1.031786413619281</v>
+        <v>1.047080074721404</v>
       </c>
       <c r="M8">
-        <v>1.039034018729492</v>
+        <v>1.056379522989992</v>
       </c>
       <c r="N8">
-        <v>1.029866932083361</v>
+        <v>1.042536062408003</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9959396328001725</v>
+        <v>1.033830290233066</v>
       </c>
       <c r="D9">
-        <v>1.005246958306024</v>
+        <v>1.03485767009201</v>
       </c>
       <c r="E9">
-        <v>1.011593618870452</v>
+        <v>1.042370817174139</v>
       </c>
       <c r="F9">
-        <v>1.017842986493785</v>
+        <v>1.051457691338443</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048228952910243</v>
+        <v>1.036695460239265</v>
       </c>
       <c r="J9">
-        <v>1.021636592385706</v>
+        <v>1.039643220207776</v>
       </c>
       <c r="K9">
-        <v>1.018255477031207</v>
+        <v>1.03802397880524</v>
       </c>
       <c r="L9">
-        <v>1.024501357012037</v>
+        <v>1.045512751630305</v>
       </c>
       <c r="M9">
-        <v>1.030653058039062</v>
+        <v>1.05457065516587</v>
       </c>
       <c r="N9">
-        <v>1.023087433530249</v>
+        <v>1.041119632829215</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9881816766981043</v>
+        <v>1.032340384432139</v>
       </c>
       <c r="D10">
-        <v>0.9989723153783577</v>
+        <v>1.033575818487133</v>
       </c>
       <c r="E10">
-        <v>1.005113321674491</v>
+        <v>1.041039188759206</v>
       </c>
       <c r="F10">
-        <v>1.010594798981613</v>
+        <v>1.049967371180601</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04595852823954</v>
+        <v>1.036415892769166</v>
       </c>
       <c r="J10">
-        <v>1.016872168025722</v>
+        <v>1.038697622859061</v>
       </c>
       <c r="K10">
-        <v>1.013360149812494</v>
+        <v>1.037030100794552</v>
       </c>
       <c r="L10">
-        <v>1.01939086320131</v>
+        <v>1.044466878996869</v>
       </c>
       <c r="M10">
-        <v>1.0247753601389</v>
+        <v>1.053363797167409</v>
       </c>
       <c r="N10">
-        <v>1.018316243141187</v>
+        <v>1.040172692623804</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.984721713444023</v>
+        <v>1.031695355636925</v>
       </c>
       <c r="D11">
-        <v>0.996182269231801</v>
+        <v>1.033021243768894</v>
       </c>
       <c r="E11">
-        <v>1.002232277135412</v>
+        <v>1.040463144276652</v>
       </c>
       <c r="F11">
-        <v>1.007370757142269</v>
+        <v>1.049322595159394</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044927918768207</v>
+        <v>1.036292484614015</v>
       </c>
       <c r="J11">
-        <v>1.014744195185641</v>
+        <v>1.038287550315351</v>
       </c>
       <c r="K11">
-        <v>1.011176543289849</v>
+        <v>1.036599425310239</v>
       </c>
       <c r="L11">
-        <v>1.017112218406322</v>
+        <v>1.044013780690634</v>
       </c>
       <c r="M11">
-        <v>1.022154997681948</v>
+        <v>1.052841002255492</v>
       </c>
       <c r="N11">
-        <v>1.01618524833559</v>
+        <v>1.039762037730045</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9834205266591163</v>
+        <v>1.031455780352453</v>
       </c>
       <c r="D12">
-        <v>0.9951343451073141</v>
+        <v>1.032815322526435</v>
       </c>
       <c r="E12">
-        <v>1.001150239202813</v>
+        <v>1.04024926080955</v>
       </c>
       <c r="F12">
-        <v>1.006159645363665</v>
+        <v>1.049083179167663</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044537703266685</v>
+        <v>1.036246292293345</v>
       </c>
       <c r="J12">
-        <v>1.013943519923155</v>
+        <v>1.038135138322587</v>
       </c>
       <c r="K12">
-        <v>1.010355360870185</v>
+        <v>1.036439406036276</v>
       </c>
       <c r="L12">
-        <v>1.016255435573696</v>
+        <v>1.043845446302273</v>
       </c>
       <c r="M12">
-        <v>1.021169780155317</v>
+        <v>1.052646781210493</v>
       </c>
       <c r="N12">
-        <v>1.015383436022393</v>
+        <v>1.039609409294769</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9837003744779556</v>
+        <v>1.031507169279988</v>
       </c>
       <c r="D13">
-        <v>0.9953596623107369</v>
+        <v>1.032859490034137</v>
       </c>
       <c r="E13">
-        <v>1.001382888434795</v>
+        <v>1.040295135671314</v>
       </c>
       <c r="F13">
-        <v>1.006420058476988</v>
+        <v>1.04913453095932</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044621745205026</v>
+        <v>1.036256216669601</v>
       </c>
       <c r="J13">
-        <v>1.014115739710157</v>
+        <v>1.03816783539935</v>
       </c>
       <c r="K13">
-        <v>1.010531972371597</v>
+        <v>1.036473732837651</v>
       </c>
       <c r="L13">
-        <v>1.016439697316517</v>
+        <v>1.043881556102741</v>
       </c>
       <c r="M13">
-        <v>1.021381660988934</v>
+        <v>1.052688443705245</v>
       </c>
       <c r="N13">
-        <v>1.015555900381246</v>
+        <v>1.039642152805132</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9846144886465662</v>
+        <v>1.031675551916459</v>
       </c>
       <c r="D14">
-        <v>0.9960958872595195</v>
+        <v>1.033004220769636</v>
       </c>
       <c r="E14">
-        <v>1.002143081810789</v>
+        <v>1.040445462860386</v>
       </c>
       <c r="F14">
-        <v>1.007270927147081</v>
+        <v>1.049302803269249</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044895816016506</v>
+        <v>1.036288673540985</v>
       </c>
       <c r="J14">
-        <v>1.01467822322772</v>
+        <v>1.038274953781055</v>
       </c>
       <c r="K14">
-        <v>1.01110887298558</v>
+        <v>1.036586199025778</v>
       </c>
       <c r="L14">
-        <v>1.017041611568275</v>
+        <v>1.043999866796226</v>
       </c>
       <c r="M14">
-        <v>1.022073805564685</v>
+        <v>1.052824948525396</v>
       </c>
       <c r="N14">
-        <v>1.016119182689923</v>
+        <v>1.039749423307226</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9851755569450606</v>
+        <v>1.031779300302919</v>
       </c>
       <c r="D15">
-        <v>0.9965479471519362</v>
+        <v>1.033093403791228</v>
       </c>
       <c r="E15">
-        <v>1.002609867346216</v>
+        <v>1.040538095711393</v>
       </c>
       <c r="F15">
-        <v>1.00779335663314</v>
+        <v>1.049406492360161</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045063691101488</v>
+        <v>1.036308624526601</v>
       </c>
       <c r="J15">
-        <v>1.015023414094205</v>
+        <v>1.038340940678097</v>
       </c>
       <c r="K15">
-        <v>1.011462967603395</v>
+        <v>1.036655486922899</v>
       </c>
       <c r="L15">
-        <v>1.017411077737602</v>
+        <v>1.044072757504612</v>
       </c>
       <c r="M15">
-        <v>1.022498663743543</v>
+        <v>1.052909049472551</v>
       </c>
       <c r="N15">
-        <v>1.016464863767032</v>
+        <v>1.03981550391323</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9884091082005366</v>
+        <v>1.032383195240121</v>
       </c>
       <c r="D16">
-        <v>0.9991558917754335</v>
+        <v>1.033612633893609</v>
       </c>
       <c r="E16">
-        <v>1.005302894586078</v>
+        <v>1.04107743081081</v>
       </c>
       <c r="F16">
-        <v>1.010806906617945</v>
+        <v>1.050010174358726</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.0460259034451</v>
+        <v>1.036424033422691</v>
       </c>
       <c r="J16">
-        <v>1.017011984879857</v>
+        <v>1.038724824969222</v>
       </c>
       <c r="K16">
-        <v>1.013503680986013</v>
+        <v>1.037058676641027</v>
       </c>
       <c r="L16">
-        <v>1.019540660843971</v>
+        <v>1.044496944895164</v>
       </c>
       <c r="M16">
-        <v>1.024947629634091</v>
+        <v>1.053398488842313</v>
       </c>
       <c r="N16">
-        <v>1.018456258551292</v>
+        <v>1.040199933364081</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9904098698162476</v>
+        <v>1.032762032496762</v>
       </c>
       <c r="D17">
-        <v>1.000771811623106</v>
+        <v>1.03393846127282</v>
       </c>
       <c r="E17">
-        <v>1.006971648956026</v>
+        <v>1.041415891987213</v>
       </c>
       <c r="F17">
-        <v>1.01267384321505</v>
+        <v>1.050388994086999</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046616575587203</v>
+        <v>1.036495796649575</v>
       </c>
       <c r="J17">
-        <v>1.01824163723778</v>
+        <v>1.038965459275808</v>
       </c>
       <c r="K17">
-        <v>1.014766321705786</v>
+        <v>1.037311501870662</v>
       </c>
       <c r="L17">
-        <v>1.020858534229222</v>
+        <v>1.04476296583849</v>
       </c>
       <c r="M17">
-        <v>1.026463244239832</v>
+        <v>1.053705443672811</v>
       </c>
       <c r="N17">
-        <v>1.019687657156606</v>
+        <v>1.040440909398983</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9915672246041849</v>
+        <v>1.032983012458669</v>
       </c>
       <c r="D18">
-        <v>1.001707341223204</v>
+        <v>1.034128556676972</v>
       </c>
       <c r="E18">
-        <v>1.007937809446918</v>
+        <v>1.041613364569297</v>
       </c>
       <c r="F18">
-        <v>1.013754593957171</v>
+        <v>1.050610005493983</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046956540422705</v>
+        <v>1.036537427800284</v>
       </c>
       <c r="J18">
-        <v>1.018952641545026</v>
+        <v>1.039105757068411</v>
       </c>
       <c r="K18">
-        <v>1.015496668669527</v>
+        <v>1.037458939644289</v>
       </c>
       <c r="L18">
-        <v>1.021620918351895</v>
+        <v>1.044918109246142</v>
       </c>
       <c r="M18">
-        <v>1.027340055009732</v>
+        <v>1.05388446419083</v>
       </c>
       <c r="N18">
-        <v>1.020399671171522</v>
+        <v>1.040581406430545</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9919602403197594</v>
+        <v>1.033058362695643</v>
       </c>
       <c r="D19">
-        <v>1.00202516120853</v>
+        <v>1.034193382034394</v>
       </c>
       <c r="E19">
-        <v>1.008266042715806</v>
+        <v>1.041680706727482</v>
       </c>
       <c r="F19">
-        <v>1.014121731590143</v>
+        <v>1.050685373506405</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04707169320168</v>
+        <v>1.036551584405185</v>
       </c>
       <c r="J19">
-        <v>1.019194033161095</v>
+        <v>1.039153584768415</v>
       </c>
       <c r="K19">
-        <v>1.015744672777718</v>
+        <v>1.037509206848009</v>
       </c>
       <c r="L19">
-        <v>1.021879816450876</v>
+        <v>1.044971005363552</v>
       </c>
       <c r="M19">
-        <v>1.027637817099018</v>
+        <v>1.053945501963828</v>
       </c>
       <c r="N19">
-        <v>1.020641405591373</v>
+        <v>1.040629302051369</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9901962118435993</v>
+        <v>1.032721385743862</v>
       </c>
       <c r="D20">
-        <v>1.000599167879224</v>
+        <v>1.033903498332911</v>
       </c>
       <c r="E20">
-        <v>1.006793356009509</v>
+        <v>1.041379572722886</v>
       </c>
       <c r="F20">
-        <v>1.012474391902694</v>
+        <v>1.050348344901326</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046553676009066</v>
+        <v>1.036488120623018</v>
       </c>
       <c r="J20">
-        <v>1.018110355147338</v>
+        <v>1.038939647705777</v>
       </c>
       <c r="K20">
-        <v>1.014631489817957</v>
+        <v>1.037284379306975</v>
       </c>
       <c r="L20">
-        <v>1.020717795053167</v>
+        <v>1.044734426589501</v>
       </c>
       <c r="M20">
-        <v>1.026301384216697</v>
+        <v>1.053672512494107</v>
       </c>
       <c r="N20">
-        <v>1.019556188630537</v>
+        <v>1.040415061173562</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9843457538707983</v>
+        <v>1.031625966949433</v>
       </c>
       <c r="D21">
-        <v>0.9958794119429453</v>
+        <v>1.032961599165466</v>
       </c>
       <c r="E21">
-        <v>1.0019195571978</v>
+        <v>1.040401192892309</v>
       </c>
       <c r="F21">
-        <v>1.007020747780197</v>
+        <v>1.049253248981493</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044815315529048</v>
+        <v>1.036279125542375</v>
       </c>
       <c r="J21">
-        <v>1.014512872988339</v>
+        <v>1.038243412642958</v>
       </c>
       <c r="K21">
-        <v>1.010939272915505</v>
+        <v>1.036553081833589</v>
       </c>
       <c r="L21">
-        <v>1.016864654009302</v>
+        <v>1.043965028163984</v>
       </c>
       <c r="M21">
-        <v>1.021870319624185</v>
+        <v>1.052784752126815</v>
       </c>
       <c r="N21">
-        <v>1.015953597634235</v>
+        <v>1.039717837377095</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9805742742857401</v>
+        <v>1.030937333064365</v>
       </c>
       <c r="D22">
-        <v>0.9928446073200672</v>
+        <v>1.032369809762647</v>
       </c>
       <c r="E22">
-        <v>0.9987860780377966</v>
+        <v>1.039786539555512</v>
       </c>
       <c r="F22">
-        <v>1.003512987463317</v>
+        <v>1.048565196721858</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043679372298116</v>
+        <v>1.036145679752085</v>
       </c>
       <c r="J22">
-        <v>1.012191410314538</v>
+        <v>1.037805125532707</v>
       </c>
       <c r="K22">
-        <v>1.00855915923591</v>
+        <v>1.036093013268071</v>
       </c>
       <c r="L22">
-        <v>1.014381621377431</v>
+        <v>1.043481083407222</v>
       </c>
       <c r="M22">
-        <v>1.019015171147543</v>
+        <v>1.05222639878361</v>
       </c>
       <c r="N22">
-        <v>1.013628838217162</v>
+        <v>1.039278927848875</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9825827364522342</v>
+        <v>1.031302381306732</v>
       </c>
       <c r="D23">
-        <v>0.9944600051277251</v>
+        <v>1.032683488358214</v>
       </c>
       <c r="E23">
-        <v>1.000453964860591</v>
+        <v>1.040112331846509</v>
       </c>
       <c r="F23">
-        <v>1.005380240853708</v>
+        <v>1.048929900588774</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044285723672011</v>
+        <v>1.036216615288676</v>
       </c>
       <c r="J23">
-        <v>1.01342788388916</v>
+        <v>1.038037520424965</v>
       </c>
       <c r="K23">
-        <v>1.009826638200831</v>
+        <v>1.036336929908521</v>
       </c>
       <c r="L23">
-        <v>1.015703830862553</v>
+        <v>1.043737649736694</v>
       </c>
       <c r="M23">
-        <v>1.020535502810374</v>
+        <v>1.052522409507989</v>
       </c>
       <c r="N23">
-        <v>1.014867067726085</v>
+        <v>1.039511652768536</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.990292784459648</v>
+        <v>1.032739752229089</v>
       </c>
       <c r="D24">
-        <v>1.000677199772619</v>
+        <v>1.033919296439025</v>
       </c>
       <c r="E24">
-        <v>1.006873941109565</v>
+        <v>1.041395983668598</v>
       </c>
       <c r="F24">
-        <v>1.012564540659845</v>
+        <v>1.050366712357149</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04658211170634</v>
+        <v>1.036491589790811</v>
       </c>
       <c r="J24">
-        <v>1.018169695092982</v>
+        <v>1.038951311029034</v>
       </c>
       <c r="K24">
-        <v>1.014692433451865</v>
+        <v>1.037296634921555</v>
       </c>
       <c r="L24">
-        <v>1.020781408488579</v>
+        <v>1.044747322316006</v>
       </c>
       <c r="M24">
-        <v>1.026374544067991</v>
+        <v>1.053687392741306</v>
       </c>
       <c r="N24">
-        <v>1.01961561284571</v>
+        <v>1.040426741060076</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.998863668851524</v>
+        <v>1.034408154824133</v>
       </c>
       <c r="D25">
-        <v>1.00761873261516</v>
+        <v>1.03535517588259</v>
       </c>
       <c r="E25">
-        <v>1.014043531745873</v>
+        <v>1.04288770079502</v>
       </c>
       <c r="F25">
-        <v>1.020581893339091</v>
+        <v>1.05203609898308</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049068680107077</v>
+        <v>1.036801770595813</v>
       </c>
       <c r="J25">
-        <v>1.023429335681872</v>
+        <v>1.040009352669185</v>
       </c>
       <c r="K25">
-        <v>1.02009991773859</v>
+        <v>1.038409103778471</v>
       </c>
       <c r="L25">
-        <v>1.026427682554481</v>
+        <v>1.045918120789566</v>
       </c>
       <c r="M25">
-        <v>1.032868887989552</v>
+        <v>1.05503846206426</v>
       </c>
       <c r="N25">
-        <v>1.024882722727526</v>
+        <v>1.041486285240715</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_215/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_215/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.035739180850205</v>
+        <v>1.005425195368222</v>
       </c>
       <c r="D2">
-        <v>1.0365018361634</v>
+        <v>1.012954788778214</v>
       </c>
       <c r="E2">
-        <v>1.04407915353227</v>
+        <v>1.019556305263668</v>
       </c>
       <c r="F2">
-        <v>1.053369209529297</v>
+        <v>1.026742294852315</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037041961587844</v>
+        <v>1.050916958852465</v>
       </c>
       <c r="J2">
-        <v>1.040851311308157</v>
+        <v>1.027444841810325</v>
       </c>
       <c r="K2">
-        <v>1.039295395551752</v>
+        <v>1.024236545567454</v>
       </c>
       <c r="L2">
-        <v>1.046851213677209</v>
+        <v>1.030749750409164</v>
       </c>
       <c r="M2">
-        <v>1.056115368416734</v>
+        <v>1.037841226654337</v>
       </c>
       <c r="N2">
-        <v>1.042329439557529</v>
+        <v>1.02890393133527</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.036705795916226</v>
+        <v>1.010043070685271</v>
       </c>
       <c r="D3">
-        <v>1.037335210576458</v>
+        <v>1.016721857927538</v>
       </c>
       <c r="E3">
-        <v>1.044945200196183</v>
+        <v>1.02344898618912</v>
       </c>
       <c r="F3">
-        <v>1.054338083335344</v>
+        <v>1.031090026868605</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037212169769669</v>
+        <v>1.052184585236003</v>
       </c>
       <c r="J3">
-        <v>1.041461513686232</v>
+        <v>1.030263645985739</v>
       </c>
       <c r="K3">
-        <v>1.039938321567864</v>
+        <v>1.027145158458014</v>
       </c>
       <c r="L3">
-        <v>1.047528282162623</v>
+        <v>1.033790372878793</v>
       </c>
       <c r="M3">
-        <v>1.056896873952488</v>
+        <v>1.04133997821295</v>
       </c>
       <c r="N3">
-        <v>1.042940508492972</v>
+        <v>1.03172673853593</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.0373313370646</v>
+        <v>1.012967306189325</v>
       </c>
       <c r="D4">
-        <v>1.037874822328026</v>
+        <v>1.019112414773834</v>
       </c>
       <c r="E4">
-        <v>1.045506022078144</v>
+        <v>1.025919665302778</v>
       </c>
       <c r="F4">
-        <v>1.054965428013442</v>
+        <v>1.033848542985784</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037320362382317</v>
+        <v>1.05297158108066</v>
       </c>
       <c r="J4">
-        <v>1.041855826037568</v>
+        <v>1.032045024465285</v>
       </c>
       <c r="K4">
-        <v>1.040354055020022</v>
+        <v>1.028985514970095</v>
       </c>
       <c r="L4">
-        <v>1.047966182353089</v>
+        <v>1.035715012292648</v>
       </c>
       <c r="M4">
-        <v>1.057402358624128</v>
+        <v>1.043554913793767</v>
       </c>
       <c r="N4">
-        <v>1.043335380813075</v>
+        <v>1.033510646777244</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037594332136853</v>
+        <v>1.014181913960494</v>
       </c>
       <c r="D5">
-        <v>1.038101760785552</v>
+        <v>1.020106532267776</v>
       </c>
       <c r="E5">
-        <v>1.045741893795702</v>
+        <v>1.026947202221078</v>
       </c>
       <c r="F5">
-        <v>1.055229262738761</v>
+        <v>1.034995561580417</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037365380624386</v>
+        <v>1.053294639035988</v>
       </c>
       <c r="J5">
-        <v>1.042021467335427</v>
+        <v>1.032784032350307</v>
       </c>
       <c r="K5">
-        <v>1.040528760762698</v>
+        <v>1.029749525112158</v>
       </c>
       <c r="L5">
-        <v>1.048150224752925</v>
+        <v>1.036514194732773</v>
       </c>
       <c r="M5">
-        <v>1.057614815036017</v>
+        <v>1.044474714131151</v>
       </c>
       <c r="N5">
-        <v>1.043501257340576</v>
+        <v>1.034250704138228</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037638491175217</v>
+        <v>1.014385002783952</v>
       </c>
       <c r="D6">
-        <v>1.038139869741096</v>
+        <v>1.020272821995361</v>
       </c>
       <c r="E6">
-        <v>1.045781503653808</v>
+        <v>1.027119088104155</v>
       </c>
       <c r="F6">
-        <v>1.05527356752252</v>
+        <v>1.035187421161234</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03737291204343</v>
+        <v>1.053348429363205</v>
       </c>
       <c r="J6">
-        <v>1.042049271729208</v>
+        <v>1.032907544140155</v>
       </c>
       <c r="K6">
-        <v>1.040558090575781</v>
+        <v>1.029877247101946</v>
       </c>
       <c r="L6">
-        <v>1.048181123272672</v>
+        <v>1.036647807377986</v>
       </c>
       <c r="M6">
-        <v>1.057650484477825</v>
+        <v>1.044628496988371</v>
       </c>
       <c r="N6">
-        <v>1.043529101219786</v>
+        <v>1.034374391328985</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.037334851149526</v>
+        <v>1.012983593061408</v>
       </c>
       <c r="D7">
-        <v>1.037877854355632</v>
+        <v>1.019125740456825</v>
       </c>
       <c r="E7">
-        <v>1.045509173407487</v>
+        <v>1.025933438558232</v>
       </c>
       <c r="F7">
-        <v>1.054968952998349</v>
+        <v>1.03386391867908</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037320965749909</v>
+        <v>1.052975928215776</v>
       </c>
       <c r="J7">
-        <v>1.041858039847246</v>
+        <v>1.032054937562338</v>
       </c>
       <c r="K7">
-        <v>1.040356389717435</v>
+        <v>1.028995761330768</v>
       </c>
       <c r="L7">
-        <v>1.047968641737613</v>
+        <v>1.035725729634639</v>
       </c>
       <c r="M7">
-        <v>1.057405197672338</v>
+        <v>1.043567248365661</v>
       </c>
       <c r="N7">
-        <v>1.043337597766617</v>
+        <v>1.033520573952032</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.036065836630401</v>
+        <v>1.006999381760849</v>
       </c>
       <c r="D8">
-        <v>1.036783403128507</v>
+        <v>1.01423784961593</v>
       </c>
       <c r="E8">
-        <v>1.044371747952245</v>
+        <v>1.020882064765301</v>
       </c>
       <c r="F8">
-        <v>1.053696557601435</v>
+        <v>1.028223245717768</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037099886249488</v>
+        <v>1.051352343628365</v>
       </c>
       <c r="J8">
-        <v>1.041057641146594</v>
+        <v>1.028406476926252</v>
       </c>
       <c r="K8">
-        <v>1.03951273338143</v>
+        <v>1.02522835303149</v>
       </c>
       <c r="L8">
-        <v>1.047080074721404</v>
+        <v>1.03178641361928</v>
       </c>
       <c r="M8">
-        <v>1.056379522989992</v>
+        <v>1.039034018729491</v>
       </c>
       <c r="N8">
-        <v>1.042536062408003</v>
+        <v>1.029866932083359</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.033830290233066</v>
+        <v>0.9959396328001713</v>
       </c>
       <c r="D9">
-        <v>1.03485767009201</v>
+        <v>1.005246958306023</v>
       </c>
       <c r="E9">
-        <v>1.042370817174139</v>
+        <v>1.011593618870451</v>
       </c>
       <c r="F9">
-        <v>1.051457691338443</v>
+        <v>1.017842986493784</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036695460239265</v>
+        <v>1.048228952910242</v>
       </c>
       <c r="J9">
-        <v>1.039643220207776</v>
+        <v>1.021636592385705</v>
       </c>
       <c r="K9">
-        <v>1.03802397880524</v>
+        <v>1.018255477031205</v>
       </c>
       <c r="L9">
-        <v>1.045512751630305</v>
+        <v>1.024501357012036</v>
       </c>
       <c r="M9">
-        <v>1.05457065516587</v>
+        <v>1.030653058039061</v>
       </c>
       <c r="N9">
-        <v>1.041119632829215</v>
+        <v>1.023087433530248</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.032340384432139</v>
+        <v>0.9881816766981039</v>
       </c>
       <c r="D10">
-        <v>1.033575818487133</v>
+        <v>0.9989723153783574</v>
       </c>
       <c r="E10">
-        <v>1.041039188759206</v>
+        <v>1.00511332167449</v>
       </c>
       <c r="F10">
-        <v>1.049967371180601</v>
+        <v>1.010594798981613</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036415892769166</v>
+        <v>1.04595852823954</v>
       </c>
       <c r="J10">
-        <v>1.038697622859061</v>
+        <v>1.016872168025722</v>
       </c>
       <c r="K10">
-        <v>1.037030100794552</v>
+        <v>1.013360149812493</v>
       </c>
       <c r="L10">
-        <v>1.044466878996869</v>
+        <v>1.019390863201309</v>
       </c>
       <c r="M10">
-        <v>1.053363797167409</v>
+        <v>1.024775360138899</v>
       </c>
       <c r="N10">
-        <v>1.040172692623804</v>
+        <v>1.018316243141187</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.031695355636925</v>
+        <v>0.9847217134440229</v>
       </c>
       <c r="D11">
-        <v>1.033021243768894</v>
+        <v>0.996182269231801</v>
       </c>
       <c r="E11">
-        <v>1.040463144276652</v>
+        <v>1.002232277135411</v>
       </c>
       <c r="F11">
-        <v>1.049322595159394</v>
+        <v>1.007370757142269</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036292484614015</v>
+        <v>1.044927918768207</v>
       </c>
       <c r="J11">
-        <v>1.038287550315351</v>
+        <v>1.01474419518564</v>
       </c>
       <c r="K11">
-        <v>1.036599425310239</v>
+        <v>1.011176543289849</v>
       </c>
       <c r="L11">
-        <v>1.044013780690634</v>
+        <v>1.017112218406322</v>
       </c>
       <c r="M11">
-        <v>1.052841002255492</v>
+        <v>1.022154997681948</v>
       </c>
       <c r="N11">
-        <v>1.039762037730045</v>
+        <v>1.01618524833559</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.031455780352453</v>
+        <v>0.9834205266591149</v>
       </c>
       <c r="D12">
-        <v>1.032815322526435</v>
+        <v>0.9951343451073129</v>
       </c>
       <c r="E12">
-        <v>1.04024926080955</v>
+        <v>1.001150239202811</v>
       </c>
       <c r="F12">
-        <v>1.049083179167663</v>
+        <v>1.006159645363664</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036246292293345</v>
+        <v>1.044537703266684</v>
       </c>
       <c r="J12">
-        <v>1.038135138322587</v>
+        <v>1.013943519923154</v>
       </c>
       <c r="K12">
-        <v>1.036439406036276</v>
+        <v>1.010355360870183</v>
       </c>
       <c r="L12">
-        <v>1.043845446302273</v>
+        <v>1.016255435573695</v>
       </c>
       <c r="M12">
-        <v>1.052646781210493</v>
+        <v>1.021169780155316</v>
       </c>
       <c r="N12">
-        <v>1.039609409294769</v>
+        <v>1.015383436022393</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.031507169279988</v>
+        <v>0.9837003744779556</v>
       </c>
       <c r="D13">
-        <v>1.032859490034137</v>
+        <v>0.9953596623107366</v>
       </c>
       <c r="E13">
-        <v>1.040295135671314</v>
+        <v>1.001382888434795</v>
       </c>
       <c r="F13">
-        <v>1.04913453095932</v>
+        <v>1.006420058476988</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036256216669601</v>
+        <v>1.044621745205026</v>
       </c>
       <c r="J13">
-        <v>1.03816783539935</v>
+        <v>1.014115739710157</v>
       </c>
       <c r="K13">
-        <v>1.036473732837651</v>
+        <v>1.010531972371596</v>
       </c>
       <c r="L13">
-        <v>1.043881556102741</v>
+        <v>1.016439697316517</v>
       </c>
       <c r="M13">
-        <v>1.052688443705245</v>
+        <v>1.021381660988934</v>
       </c>
       <c r="N13">
-        <v>1.039642152805132</v>
+        <v>1.015555900381246</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.031675551916459</v>
+        <v>0.9846144886465661</v>
       </c>
       <c r="D14">
-        <v>1.033004220769636</v>
+        <v>0.9960958872595196</v>
       </c>
       <c r="E14">
-        <v>1.040445462860386</v>
+        <v>1.002143081810789</v>
       </c>
       <c r="F14">
-        <v>1.049302803269249</v>
+        <v>1.007270927147081</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036288673540985</v>
+        <v>1.044895816016506</v>
       </c>
       <c r="J14">
-        <v>1.038274953781055</v>
+        <v>1.01467822322772</v>
       </c>
       <c r="K14">
-        <v>1.036586199025778</v>
+        <v>1.01110887298558</v>
       </c>
       <c r="L14">
-        <v>1.043999866796226</v>
+        <v>1.017041611568275</v>
       </c>
       <c r="M14">
-        <v>1.052824948525396</v>
+        <v>1.022073805564685</v>
       </c>
       <c r="N14">
-        <v>1.039749423307226</v>
+        <v>1.016119182689923</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.031779300302919</v>
+        <v>0.985175556945061</v>
       </c>
       <c r="D15">
-        <v>1.033093403791228</v>
+        <v>0.9965479471519365</v>
       </c>
       <c r="E15">
-        <v>1.040538095711393</v>
+        <v>1.002609867346216</v>
       </c>
       <c r="F15">
-        <v>1.049406492360161</v>
+        <v>1.007793356633141</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036308624526601</v>
+        <v>1.045063691101488</v>
       </c>
       <c r="J15">
-        <v>1.038340940678097</v>
+        <v>1.015023414094206</v>
       </c>
       <c r="K15">
-        <v>1.036655486922899</v>
+        <v>1.011462967603396</v>
       </c>
       <c r="L15">
-        <v>1.044072757504612</v>
+        <v>1.017411077737602</v>
       </c>
       <c r="M15">
-        <v>1.052909049472551</v>
+        <v>1.022498663743544</v>
       </c>
       <c r="N15">
-        <v>1.03981550391323</v>
+        <v>1.016464863767032</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.032383195240121</v>
+        <v>0.9884091082005357</v>
       </c>
       <c r="D16">
-        <v>1.033612633893609</v>
+        <v>0.9991558917754326</v>
       </c>
       <c r="E16">
-        <v>1.04107743081081</v>
+        <v>1.005302894586077</v>
       </c>
       <c r="F16">
-        <v>1.050010174358726</v>
+        <v>1.010806906617944</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036424033422691</v>
+        <v>1.046025903445099</v>
       </c>
       <c r="J16">
-        <v>1.038724824969222</v>
+        <v>1.017011984879856</v>
       </c>
       <c r="K16">
-        <v>1.037058676641027</v>
+        <v>1.013503680986012</v>
       </c>
       <c r="L16">
-        <v>1.044496944895164</v>
+        <v>1.01954066084397</v>
       </c>
       <c r="M16">
-        <v>1.053398488842313</v>
+        <v>1.02494762963409</v>
       </c>
       <c r="N16">
-        <v>1.040199933364081</v>
+        <v>1.018456258551291</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.032762032496762</v>
+        <v>0.990409869816247</v>
       </c>
       <c r="D17">
-        <v>1.03393846127282</v>
+        <v>1.000771811623106</v>
       </c>
       <c r="E17">
-        <v>1.041415891987213</v>
+        <v>1.006971648956025</v>
       </c>
       <c r="F17">
-        <v>1.050388994086999</v>
+        <v>1.012673843215049</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036495796649575</v>
+        <v>1.046616575587203</v>
       </c>
       <c r="J17">
-        <v>1.038965459275808</v>
+        <v>1.01824163723778</v>
       </c>
       <c r="K17">
-        <v>1.037311501870662</v>
+        <v>1.014766321705786</v>
       </c>
       <c r="L17">
-        <v>1.04476296583849</v>
+        <v>1.020858534229222</v>
       </c>
       <c r="M17">
-        <v>1.053705443672811</v>
+        <v>1.026463244239832</v>
       </c>
       <c r="N17">
-        <v>1.040440909398983</v>
+        <v>1.019687657156606</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.032983012458669</v>
+        <v>0.991567224604185</v>
       </c>
       <c r="D18">
-        <v>1.034128556676972</v>
+        <v>1.001707341223204</v>
       </c>
       <c r="E18">
-        <v>1.041613364569297</v>
+        <v>1.007937809446918</v>
       </c>
       <c r="F18">
-        <v>1.050610005493983</v>
+        <v>1.013754593957171</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036537427800284</v>
+        <v>1.046956540422705</v>
       </c>
       <c r="J18">
-        <v>1.039105757068411</v>
+        <v>1.018952641545026</v>
       </c>
       <c r="K18">
-        <v>1.037458939644289</v>
+        <v>1.015496668669527</v>
       </c>
       <c r="L18">
-        <v>1.044918109246142</v>
+        <v>1.021620918351895</v>
       </c>
       <c r="M18">
-        <v>1.05388446419083</v>
+        <v>1.027340055009732</v>
       </c>
       <c r="N18">
-        <v>1.040581406430545</v>
+        <v>1.020399671171522</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.033058362695643</v>
+        <v>0.99196024031976</v>
       </c>
       <c r="D19">
-        <v>1.034193382034394</v>
+        <v>1.002025161208531</v>
       </c>
       <c r="E19">
-        <v>1.041680706727482</v>
+        <v>1.008266042715806</v>
       </c>
       <c r="F19">
-        <v>1.050685373506405</v>
+        <v>1.014121731590144</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036551584405185</v>
+        <v>1.04707169320168</v>
       </c>
       <c r="J19">
-        <v>1.039153584768415</v>
+        <v>1.019194033161096</v>
       </c>
       <c r="K19">
-        <v>1.037509206848009</v>
+        <v>1.015744672777719</v>
       </c>
       <c r="L19">
-        <v>1.044971005363552</v>
+        <v>1.021879816450877</v>
       </c>
       <c r="M19">
-        <v>1.053945501963828</v>
+        <v>1.027637817099019</v>
       </c>
       <c r="N19">
-        <v>1.040629302051369</v>
+        <v>1.020641405591374</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.032721385743862</v>
+        <v>0.9901962118436001</v>
       </c>
       <c r="D20">
-        <v>1.033903498332911</v>
+        <v>1.000599167879225</v>
       </c>
       <c r="E20">
-        <v>1.041379572722886</v>
+        <v>1.00679335600951</v>
       </c>
       <c r="F20">
-        <v>1.050348344901326</v>
+        <v>1.012474391902695</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036488120623018</v>
+        <v>1.046553676009066</v>
       </c>
       <c r="J20">
-        <v>1.038939647705777</v>
+        <v>1.018110355147338</v>
       </c>
       <c r="K20">
-        <v>1.037284379306975</v>
+        <v>1.014631489817958</v>
       </c>
       <c r="L20">
-        <v>1.044734426589501</v>
+        <v>1.020717795053167</v>
       </c>
       <c r="M20">
-        <v>1.053672512494107</v>
+        <v>1.026301384216697</v>
       </c>
       <c r="N20">
-        <v>1.040415061173562</v>
+        <v>1.019556188630538</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.031625966949433</v>
+        <v>0.984345753870799</v>
       </c>
       <c r="D21">
-        <v>1.032961599165466</v>
+        <v>0.9958794119429464</v>
       </c>
       <c r="E21">
-        <v>1.040401192892309</v>
+        <v>1.001919557197801</v>
       </c>
       <c r="F21">
-        <v>1.049253248981493</v>
+        <v>1.007020747780198</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036279125542375</v>
+        <v>1.044815315529049</v>
       </c>
       <c r="J21">
-        <v>1.038243412642958</v>
+        <v>1.014512872988339</v>
       </c>
       <c r="K21">
-        <v>1.036553081833589</v>
+        <v>1.010939272915506</v>
       </c>
       <c r="L21">
-        <v>1.043965028163984</v>
+        <v>1.016864654009303</v>
       </c>
       <c r="M21">
-        <v>1.052784752126815</v>
+        <v>1.021870319624186</v>
       </c>
       <c r="N21">
-        <v>1.039717837377095</v>
+        <v>1.015953597634236</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.030937333064365</v>
+        <v>0.9805742742857403</v>
       </c>
       <c r="D22">
-        <v>1.032369809762647</v>
+        <v>0.9928446073200673</v>
       </c>
       <c r="E22">
-        <v>1.039786539555512</v>
+        <v>0.9987860780377967</v>
       </c>
       <c r="F22">
-        <v>1.048565196721858</v>
+        <v>1.003512987463317</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036145679752085</v>
+        <v>1.043679372298116</v>
       </c>
       <c r="J22">
-        <v>1.037805125532707</v>
+        <v>1.012191410314538</v>
       </c>
       <c r="K22">
-        <v>1.036093013268071</v>
+        <v>1.00855915923591</v>
       </c>
       <c r="L22">
-        <v>1.043481083407222</v>
+        <v>1.014381621377431</v>
       </c>
       <c r="M22">
-        <v>1.05222639878361</v>
+        <v>1.019015171147543</v>
       </c>
       <c r="N22">
-        <v>1.039278927848875</v>
+        <v>1.013628838217162</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.031302381306732</v>
+        <v>0.9825827364522357</v>
       </c>
       <c r="D23">
-        <v>1.032683488358214</v>
+        <v>0.9944600051277268</v>
       </c>
       <c r="E23">
-        <v>1.040112331846509</v>
+        <v>1.000453964860593</v>
       </c>
       <c r="F23">
-        <v>1.048929900588774</v>
+        <v>1.00538024085371</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036216615288676</v>
+        <v>1.044285723672011</v>
       </c>
       <c r="J23">
-        <v>1.038037520424965</v>
+        <v>1.013427883889161</v>
       </c>
       <c r="K23">
-        <v>1.036336929908521</v>
+        <v>1.009826638200833</v>
       </c>
       <c r="L23">
-        <v>1.043737649736694</v>
+        <v>1.015703830862554</v>
       </c>
       <c r="M23">
-        <v>1.052522409507989</v>
+        <v>1.020535502810376</v>
       </c>
       <c r="N23">
-        <v>1.039511652768536</v>
+        <v>1.014867067726087</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.032739752229089</v>
+        <v>0.9902927844596472</v>
       </c>
       <c r="D24">
-        <v>1.033919296439025</v>
+        <v>1.000677199772618</v>
       </c>
       <c r="E24">
-        <v>1.041395983668598</v>
+        <v>1.006873941109564</v>
       </c>
       <c r="F24">
-        <v>1.050366712357149</v>
+        <v>1.012564540659844</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036491589790811</v>
+        <v>1.046582111706339</v>
       </c>
       <c r="J24">
-        <v>1.038951311029034</v>
+        <v>1.018169695092981</v>
       </c>
       <c r="K24">
-        <v>1.037296634921555</v>
+        <v>1.014692433451864</v>
       </c>
       <c r="L24">
-        <v>1.044747322316006</v>
+        <v>1.020781408488578</v>
       </c>
       <c r="M24">
-        <v>1.053687392741306</v>
+        <v>1.02637454406799</v>
       </c>
       <c r="N24">
-        <v>1.040426741060076</v>
+        <v>1.019615612845709</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.034408154824133</v>
+        <v>0.9988636688515228</v>
       </c>
       <c r="D25">
-        <v>1.03535517588259</v>
+        <v>1.007618732615159</v>
       </c>
       <c r="E25">
-        <v>1.04288770079502</v>
+        <v>1.014043531745872</v>
       </c>
       <c r="F25">
-        <v>1.05203609898308</v>
+        <v>1.02058189333909</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036801770595813</v>
+        <v>1.049068680107076</v>
       </c>
       <c r="J25">
-        <v>1.040009352669185</v>
+        <v>1.023429335681871</v>
       </c>
       <c r="K25">
-        <v>1.038409103778471</v>
+        <v>1.020099917738589</v>
       </c>
       <c r="L25">
-        <v>1.045918120789566</v>
+        <v>1.02642768255448</v>
       </c>
       <c r="M25">
-        <v>1.05503846206426</v>
+        <v>1.032868887989551</v>
       </c>
       <c r="N25">
-        <v>1.041486285240715</v>
+        <v>1.024882722727525</v>
       </c>
     </row>
   </sheetData>
